--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -2250,22 +2250,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Volos</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M33" t="n">
+        <v>19</v>
+      </c>
+      <c r="N33" t="n">
+        <v>12</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -2308,22 +2308,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -2366,40 +2366,120 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M35" t="n">
+        <v>13</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14</v>
+      </c>
+      <c r="N36" t="n">
+        <v>19</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -2482,22 +2482,62 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Panetolikos</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1092,22 +1092,62 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1150,22 +1150,62 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>29/11/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1208,22 +1208,62 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Panetolikos</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1266,22 +1266,62 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OFI Crete</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1324,22 +1324,62 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1382,22 +1382,62 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1440,40 +1440,120 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>12</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>24/01/2026</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1556,22 +1556,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/02/2026</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1614,22 +1614,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AEK</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/panserraikos-fc.xlsx
+++ b/new-stats/panserraikos-fc.xlsx
@@ -1672,22 +1672,62 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
